--- a/data/trans_orig/Q25_A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R-Estudios-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>15.231757308085</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>18.31586284356089</v>
+        <v>18.3158628435609</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>12.29556239326018</v>
+        <v>12.28036993080212</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>14.30373527178111</v>
+        <v>14.3261355190772</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14.7730811273924</v>
+        <v>14.80497514874129</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17.08385279408584</v>
+        <v>17.1453606187432</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.593867217403058</v>
+        <v>7.811484549875831</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.745355734321789</v>
+        <v>5.802113123839254</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.493820039525517</v>
+        <v>7.626160637639154</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>13.15365258395336</v>
+        <v>13.51072935782191</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>11.90930275511575</v>
+        <v>11.87039632255309</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13.11453140462478</v>
+        <v>13.25272594469633</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13.8737662251775</v>
+        <v>13.85601978504348</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>16.87360151713206</v>
+        <v>17.01343275370871</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.44963646104999</v>
+        <v>14.62709369117268</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.98677253886484</v>
+        <v>17.08286930278683</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.70909562867584</v>
+        <v>17.64801281382923</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20.43980516592439</v>
+        <v>20.3913743709796</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.53429286115735</v>
+        <v>12.6258279600454</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.544360290564462</v>
+        <v>9.620999141420539</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>17.30870805129733</v>
+        <v>18.3195014019214</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>19.91370217795237</v>
+        <v>19.87512592452067</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>13.90471824328436</v>
+        <v>13.85961915702816</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15.54255933271212</v>
+        <v>15.67021118580164</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16.72143314684824</v>
+        <v>16.67077177268588</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>19.78581569317188</v>
+        <v>19.94325127829568</v>
       </c>
     </row>
     <row r="7">
@@ -811,7 +811,7 @@
         <v>5.737552430771322</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>7.809027407787791</v>
+        <v>7.809027407787789</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>7.887612825309837</v>
@@ -820,7 +820,7 @@
         <v>11.15689979744082</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>7.150939376318496</v>
+        <v>7.150939376318497</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>8.273950175464648</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.164341840794908</v>
+        <v>7.092861042236862</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.649030794781663</v>
+        <v>7.700759732067533</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9.626000685316916</v>
+        <v>9.602485214604313</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13.81837741507459</v>
+        <v>13.79521450321896</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>4.801107998176725</v>
+        <v>4.893244020784122</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.929296725220626</v>
+        <v>6.783004954053281</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>6.885893931251506</v>
+        <v>6.933772890547616</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>10.03450235181695</v>
+        <v>9.967973235088404</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>6.514587340098728</v>
+        <v>6.451923264465937</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7.6252190039354</v>
+        <v>7.650915374230739</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8.858878702809568</v>
+        <v>8.79748840319319</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>12.64902649943192</v>
+        <v>12.64533989325202</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.085615045550551</v>
+        <v>9.096861185567214</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.560846312759127</v>
+        <v>9.652880419654194</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.83550881761572</v>
+        <v>11.76251060653982</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16.44453737198527</v>
+        <v>16.30908287292013</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>6.673822443184179</v>
+        <v>6.828818452315754</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.897520904398968</v>
+        <v>8.884022694532254</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>9.116801568351788</v>
+        <v>9.097019102173908</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>12.38506717560653</v>
+        <v>12.35734298431553</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>7.886194184069113</v>
+        <v>7.868930981147737</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9.026662343232967</v>
+        <v>9.041124409347509</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10.30851471675999</v>
+        <v>10.33409492849698</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>14.51245083401798</v>
+        <v>14.46462854222061</v>
       </c>
     </row>
     <row r="10">
@@ -944,7 +944,7 @@
         <v>15.88365612135894</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>6.532692984158388</v>
+        <v>6.532692984158389</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>7.333940149413151</v>
@@ -953,7 +953,7 @@
         <v>10.18136826004101</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>14.39883383146042</v>
+        <v>14.39883383146043</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>8.560148260701485</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.839046609862316</v>
+        <v>7.661055735287886</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.264529127725529</v>
+        <v>8.365139166642505</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9.913824235323426</v>
+        <v>9.744126589221946</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13.8912013220725</v>
+        <v>13.95830608302701</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.089135462418976</v>
+        <v>5.239308055732066</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.869611082362614</v>
+        <v>5.906449244039731</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>8.556519225967081</v>
+        <v>8.600383694582407</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>12.65084628481582</v>
+        <v>12.5162613629236</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>7.286803725594005</v>
+        <v>7.17206659843813</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7.691896952465394</v>
+        <v>7.775476048376148</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9.578173439387212</v>
+        <v>9.684023701870498</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>13.84714253559162</v>
+        <v>13.93875480741935</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.66035994535041</v>
+        <v>12.62288169678183</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.09978749930281</v>
+        <v>13.25420133161692</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.00292786386834</v>
+        <v>13.73703436328295</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.92120285111378</v>
+        <v>17.97958348264318</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.419638020666927</v>
+        <v>8.537254938857782</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.324436757762964</v>
+        <v>9.292444387703572</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>12.37915605193087</v>
+        <v>12.3114030281969</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>16.52877390305954</v>
+        <v>16.64678886422813</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.47481734650313</v>
+        <v>10.35219628358892</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10.73061283654712</v>
+        <v>10.78203406034886</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12.44495576865591</v>
+        <v>12.61335796066554</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>16.74227712991619</v>
+        <v>16.7832918042695</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>10.09949118674505</v>
+        <v>10.09643436366185</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>11.26647432602179</v>
+        <v>11.32158670540252</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11.9023610273823</v>
+        <v>11.7747106860721</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15.43237430537826</v>
+        <v>15.29247584152282</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>5.904848807605857</v>
+        <v>5.92037208681711</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.886660759799391</v>
+        <v>6.950583872911235</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>8.069499301050124</v>
+        <v>7.986989323937191</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>11.64732466118243</v>
+        <v>11.82558060698285</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>9.062462827635505</v>
+        <v>9.024521765975388</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10.04580945820862</v>
+        <v>10.11026179967735</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10.75676984374735</v>
+        <v>10.70340375930199</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>14.29932268218906</v>
+        <v>14.37505839288237</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.52909905033899</v>
+        <v>11.65311453990771</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.00876711850167</v>
+        <v>12.98998346950143</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.47091952549811</v>
+        <v>13.53760545838541</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.28394006397261</v>
+        <v>17.10617445283228</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.598267089314185</v>
+        <v>7.698159208658576</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>8.463927824228147</v>
+        <v>8.480505270021313</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>10.11679065812122</v>
+        <v>10.05592391393506</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>13.61586510368091</v>
+        <v>13.65914856629764</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>10.30095016228985</v>
+        <v>10.29021657089358</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>11.31015174429272</v>
+        <v>11.30885895067325</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>12.02171244763052</v>
+        <v>12.03565040985772</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>15.63449162356713</v>
+        <v>15.75106163503018</v>
       </c>
     </row>
     <row r="16">
